--- a/IPL STANDINGS.xlsx
+++ b/IPL STANDINGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/666ddfd1481aeda4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A895B7-A06F-4990-8B4F-5F828F6D60B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B3A895B7-A06F-4990-8B4F-5F828F6D60B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7296E1-D146-4D74-AD93-203E01616D36}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{980BFAA3-9EA1-4A80-BF72-AC19E3DF3C9C}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Sl.no</t>
   </si>
@@ -131,6 +130,9 @@
   </si>
   <si>
     <t>1(2022)</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -753,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
